--- a/输出/mimo/任务详情/任务说明文档(工业版9任务).xlsx
+++ b/输出/mimo/任务详情/任务说明文档(工业版9任务).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="170">
   <si>
     <t>任务价格</t>
   </si>
@@ -796,8 +796,128 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>在指定的区域对医疗相关从业者进行10个问题的调研，调研人数为50</t>
+    <t>1.利用拜访前任务分配（可选）完成执行任务计划安排。2.任务执行时利用系统内物理定位匹配出访地址。3.任务执行时锁定拜访对象身份信息确保业务指向清晰。4.结合拜访计划（可选）、拜访定位、时间、角色等数据自动生成相关结果集。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.利用任务分配（可选）完成执行任务计划安排。2.任务执行前利用系统通知功能，完成时间、地址、主题、参会人信息等相应内容录入，并对参会人进行自动通知。3.任务执行时通过扫码锁定参会对象身份信息与当前物理地址信息，确保业务真实匹配。4.可上传多张图片留痕以及编辑自定义会议报告单（可选）可应对上游独立需求。5.预留票据规整端口，可打包票据存根上传留痕（功能暂未开放）。6.结合多项数据自动生成相关结果集。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.终端管理计划分配到责任员工（可选）。2.自动分辨匹配任务周期内已完成/未完成的拜访任务。3.工业自定义终端管理对象单位等级、拜访周期以及次数。4.智能摘取符合条件的医生拜访任务（取执业医院）与终端拜访任务（取物理定位）。5.可自动归集多张图片留痕以及自定义编辑终端管理报告（可选）可应对上游独立需求。6.结合数据自动生成相关结果集。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.利用拜访前任务分配（可选）完成执行任务计划安排。2.任务执行时利用系统内物理定位匹配出访单位地址。3.任务执行时锁定拜访单位等级信息确保业务指向清晰。4.可上传多张图片留痕以及编辑自定义拜访报告单（可选）可应对上游独立需求。5.结合拜访计划（可选）、拜访定位、时间、角色等数据自动生成相关结果集。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.医疗知识、技术、学术等多重行业内专精内容分类可选。2.多重会议形式可选（区域、人数、图文、视、音频、直播、课程等）。3.系统自动生成（目的、背景、通知、效果、介绍等）模板。4.专业审核团队5*8在线审核。5.服务商召集行业内主讲专家轻松主持线上会议。6.平台快速线上召集真实参与者（医疗相关从业者）完成知识及价值内容传递。7、自定义成本预算表等多项数据自动生成相关调研结果报告。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定价方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本导向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本导向
++
+需求导向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场竞争导向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本导向
++
+需求导向
++
+市场竞争导向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本导向
++
+需求导向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下工具类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下工具类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息收集类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息传递类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">使用人群：医疗互联网推广工作人员                  目标人群：医生     </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用人群：米墨已开户服务商       目标人群：医院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">使用人群：医疗互联网推广工作人员                  目标人群：医院、配送物流等药品终端     </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用人群：医疗互联网推广工作人员                目标人群：医疗相关从业者（大量）、调研评审医生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用人群：米墨已开户服务商                      目标人群：医生（大量）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用人群：医疗互联网推广工作人员                目标用户：医院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用人群：医疗互联网推广工作人员                      目标用户：医生（大量）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用人群：医疗互联网推广工作人员                目标用户：宣讲人（医生）、医生（大量）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下工具类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本导向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在指定的区域对医疗相关从业者进行15个问题的调研，调研人数为100</t>
     </r>
     <r>
       <rPr>
@@ -812,123 +932,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.利用拜访前任务分配（可选）完成执行任务计划安排。2.任务执行时利用系统内物理定位匹配出访地址。3.任务执行时锁定拜访对象身份信息确保业务指向清晰。4.结合拜访计划（可选）、拜访定位、时间、角色等数据自动生成相关结果集。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.利用任务分配（可选）完成执行任务计划安排。2.任务执行前利用系统通知功能，完成时间、地址、主题、参会人信息等相应内容录入，并对参会人进行自动通知。3.任务执行时通过扫码锁定参会对象身份信息与当前物理地址信息，确保业务真实匹配。4.可上传多张图片留痕以及编辑自定义会议报告单（可选）可应对上游独立需求。5.预留票据规整端口，可打包票据存根上传留痕（功能暂未开放）。6.结合多项数据自动生成相关结果集。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.终端管理计划分配到责任员工（可选）。2.自动分辨匹配任务周期内已完成/未完成的拜访任务。3.工业自定义终端管理对象单位等级、拜访周期以及次数。4.智能摘取符合条件的医生拜访任务（取执业医院）与终端拜访任务（取物理定位）。5.可自动归集多张图片留痕以及自定义编辑终端管理报告（可选）可应对上游独立需求。6.结合数据自动生成相关结果集。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.利用拜访前任务分配（可选）完成执行任务计划安排。2.任务执行时利用系统内物理定位匹配出访单位地址。3.任务执行时锁定拜访单位等级信息确保业务指向清晰。4.可上传多张图片留痕以及编辑自定义拜访报告单（可选）可应对上游独立需求。5.结合拜访计划（可选）、拜访定位、时间、角色等数据自动生成相关结果集。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.医疗知识、技术、学术等多重行业内专精内容分类可选。2.多重会议形式可选（区域、人数、图文、视、音频、直播、课程等）。3.系统自动生成（目的、背景、通知、效果、介绍等）模板。4.专业审核团队5*8在线审核。5.服务商召集行业内主讲专家轻松主持线上会议。6.平台快速线上召集真实参与者（医疗相关从业者）完成知识及价值内容传递。7、自定义成本预算表等多项数据自动生成相关调研结果报告。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定价方法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本导向</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本导向
-+
-需求导向</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>市场竞争导向</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本导向
-+
-需求导向
-+
-市场竞争导向</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本导向
-+
-需求导向</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务分类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>线下工具类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>线下工具类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息收集类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息传递类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">使用人群：医疗互联网推广工作人员                  目标人群：医生     </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用人群：米墨已开户服务商       目标人群：医院</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">使用人群：医疗互联网推广工作人员                  目标人群：医院、配送物流等药品终端     </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用人群：医疗互联网推广工作人员                目标人群：医疗相关从业者（大量）、调研评审医生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用人群：米墨已开户服务商                      目标人群：医生（大量）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用人群：医疗互联网推广工作人员                目标用户：医院</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用人群：医疗互联网推广工作人员                      目标用户：医生（大量）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用人群：医疗互联网推广工作人员                目标用户：宣讲人（医生）、医生（大量）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>线下工具类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本导向</t>
+    <r>
+      <t>在指定的区域对医疗相关从业者进行15个问题的调研，调研人数为50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1231,146 +1247,146 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1713,8 +1729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G6"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1730,49 +1746,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
     </row>
     <row r="2" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
     </row>
     <row r="3" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -1787,27 +1803,27 @@
         <v>3</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="H3" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="41" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="O3" s="36"/>
-      <c r="P3" s="37"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="48"/>
     </row>
     <row r="4" spans="1:16" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="38" t="s">
+      <c r="A4" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="49" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1816,86 +1832,86 @@
       <c r="D4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>141</v>
+      <c r="E4" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="F4" s="3">
         <v>450</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="H4" s="51" t="s">
+      <c r="G4" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="O4" s="43"/>
-      <c r="P4" s="44"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="O4" s="25"/>
+      <c r="P4" s="26"/>
     </row>
     <row r="5" spans="1:16" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-      <c r="B5" s="38"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="3">
         <v>725</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="51" t="s">
+      <c r="G5" s="57"/>
+      <c r="H5" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="47"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="29"/>
     </row>
     <row r="6" spans="1:16" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="61"/>
       <c r="F6" s="3">
         <v>1000</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="51" t="s">
+      <c r="G6" s="58"/>
+      <c r="H6" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="50"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="32"/>
     </row>
     <row r="7" spans="1:16" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="49" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1904,222 +1920,222 @@
       <c r="D7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="59" t="s">
         <v>129</v>
       </c>
       <c r="F7" s="3">
         <v>23000</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="H7" s="56" t="s">
+      <c r="G7" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="O7" s="43"/>
-      <c r="P7" s="44"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="O7" s="25"/>
+      <c r="P7" s="26"/>
     </row>
     <row r="8" spans="1:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="62"/>
       <c r="F8" s="10">
         <v>50000</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="56" t="s">
+      <c r="G8" s="57"/>
+      <c r="H8" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="47"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="29"/>
     </row>
     <row r="9" spans="1:16" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
-      <c r="B9" s="38"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="29"/>
+      <c r="E9" s="62"/>
       <c r="F9" s="3">
         <v>20000</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="56" t="s">
+      <c r="G9" s="57"/>
+      <c r="H9" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="47"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="29"/>
     </row>
     <row r="10" spans="1:16" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18"/>
-      <c r="B10" s="38"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="29"/>
+      <c r="E10" s="62"/>
       <c r="F10" s="3">
         <v>45000</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="56" t="s">
+      <c r="G10" s="57"/>
+      <c r="H10" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="47"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="29"/>
     </row>
     <row r="11" spans="1:16" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
-      <c r="B11" s="38"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="3">
         <v>21000</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="56" t="s">
+      <c r="G11" s="58"/>
+      <c r="H11" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="50"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="32"/>
     </row>
     <row r="12" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" s="38" t="s">
+      <c r="A12" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="53" t="s">
         <v>130</v>
       </c>
       <c r="F12" s="3">
         <v>10000</v>
       </c>
-      <c r="G12" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="H12" s="56" t="s">
+      <c r="G12" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="O12" s="43"/>
-      <c r="P12" s="44"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="O12" s="25"/>
+      <c r="P12" s="26"/>
     </row>
     <row r="13" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="18"/>
-      <c r="B13" s="38"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="20"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="54"/>
       <c r="F13" s="3">
         <v>34000</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="56" t="s">
+      <c r="G13" s="57"/>
+      <c r="H13" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="47"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="29"/>
     </row>
     <row r="14" spans="1:16" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="18"/>
-      <c r="B14" s="38"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="21"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="55"/>
       <c r="F14" s="3">
         <v>42000</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="56" t="s">
+      <c r="G14" s="58"/>
+      <c r="H14" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="50"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="32"/>
     </row>
     <row r="15" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" s="38" t="s">
+      <c r="A15" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="49" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -2128,544 +2144,544 @@
       <c r="D15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="59" t="s">
         <v>131</v>
       </c>
       <c r="F15" s="3">
         <v>4250</v>
       </c>
-      <c r="G15" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="H15" s="56" t="s">
+      <c r="G15" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="O15" s="43"/>
-      <c r="P15" s="44"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="O15" s="25"/>
+      <c r="P15" s="26"/>
     </row>
     <row r="16" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="18"/>
-      <c r="B16" s="38"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="29"/>
+      <c r="E16" s="62"/>
       <c r="F16" s="3">
         <v>5250</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="56" t="s">
+      <c r="G16" s="57"/>
+      <c r="H16" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="47"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="29"/>
     </row>
     <row r="17" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="18"/>
-      <c r="B17" s="38"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="29"/>
+      <c r="E17" s="62"/>
       <c r="F17" s="3">
         <v>7628</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="56" t="s">
+      <c r="G17" s="57"/>
+      <c r="H17" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="47"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="29"/>
     </row>
     <row r="18" spans="1:16" ht="121.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="18"/>
-      <c r="B18" s="38"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="30"/>
+      <c r="E18" s="63"/>
       <c r="F18" s="3">
         <v>8875</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="56" t="s">
+      <c r="G18" s="58"/>
+      <c r="H18" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="50"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" s="38" t="s">
+      <c r="A19" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="49" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="53" t="s">
         <v>132</v>
       </c>
       <c r="F19" s="3">
         <v>19375</v>
       </c>
-      <c r="G19" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="H19" s="59" t="s">
+      <c r="G19" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="H19" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="O19" s="43"/>
-      <c r="P19" s="44"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="O19" s="25"/>
+      <c r="P19" s="26"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="18"/>
-      <c r="B20" s="38"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="20"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="54"/>
       <c r="F20" s="10">
         <v>38750</v>
       </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="59" t="s">
+      <c r="G20" s="57"/>
+      <c r="H20" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="47"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="29"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="18"/>
-      <c r="B21" s="38"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="20"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="54"/>
       <c r="F21" s="10">
         <v>55625</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="59" t="s">
+      <c r="G21" s="57"/>
+      <c r="H21" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="47"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="29"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="18"/>
-      <c r="B22" s="38"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="20"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="54"/>
       <c r="F22" s="10">
         <v>25625</v>
       </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="59" t="s">
+      <c r="G22" s="57"/>
+      <c r="H22" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="47"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="29"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="18"/>
-      <c r="B23" s="38"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="54"/>
       <c r="F23" s="10">
         <v>42500</v>
       </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="59" t="s">
+      <c r="G23" s="57"/>
+      <c r="H23" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="47"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="29"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="18"/>
-      <c r="B24" s="38"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="20"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="54"/>
       <c r="F24" s="10">
         <v>60000</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="59" t="s">
+      <c r="G24" s="57"/>
+      <c r="H24" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="45"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="47"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="29"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A25" s="18"/>
-      <c r="B25" s="38"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="20"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="54"/>
       <c r="F25" s="10">
         <v>28750</v>
       </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="59" t="s">
+      <c r="G25" s="57"/>
+      <c r="H25" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="47"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="29"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="18"/>
-      <c r="B26" s="38"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="20"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="54"/>
       <c r="F26" s="10">
         <v>46250</v>
       </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="47"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="29"/>
     </row>
     <row r="27" spans="1:16" ht="130.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="18"/>
-      <c r="B27" s="38"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="21"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="10">
         <v>63125</v>
       </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="50"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="32"/>
     </row>
     <row r="28" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B28" s="38" t="s">
+      <c r="A28" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="49" t="s">
         <v>33</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="19" t="s">
-        <v>142</v>
+      <c r="E28" s="53" t="s">
+        <v>141</v>
       </c>
       <c r="F28" s="3">
         <v>11000</v>
       </c>
-      <c r="G28" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="H28" s="56" t="s">
+      <c r="G28" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="H28" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="O28" s="43"/>
-      <c r="P28" s="44"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="O28" s="25"/>
+      <c r="P28" s="26"/>
     </row>
     <row r="29" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="18"/>
-      <c r="B29" s="38"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="20"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="54"/>
       <c r="F29" s="3">
         <v>24200</v>
       </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="56" t="s">
+      <c r="G29" s="57"/>
+      <c r="H29" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="45"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="47"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="29"/>
     </row>
     <row r="30" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="18"/>
-      <c r="B30" s="38"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="20"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="54"/>
       <c r="F30" s="3">
         <v>35200</v>
       </c>
-      <c r="G30" s="23"/>
-      <c r="H30" s="56" t="s">
+      <c r="G30" s="57"/>
+      <c r="H30" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="47"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="29"/>
     </row>
     <row r="31" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="18"/>
-      <c r="B31" s="38"/>
+      <c r="A31" s="64"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="20"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="54"/>
       <c r="F31" s="3">
         <v>45100</v>
       </c>
-      <c r="G31" s="23"/>
-      <c r="H31" s="56" t="s">
+      <c r="G31" s="57"/>
+      <c r="H31" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="47"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="29"/>
     </row>
     <row r="32" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="18"/>
-      <c r="B32" s="38"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="20"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="54"/>
       <c r="F32" s="3">
         <v>56100</v>
       </c>
-      <c r="G32" s="23"/>
-      <c r="H32" s="56" t="s">
+      <c r="G32" s="57"/>
+      <c r="H32" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="47"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="29"/>
     </row>
     <row r="33" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="18"/>
-      <c r="B33" s="38"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="20"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="54"/>
       <c r="F33" s="3">
         <v>110000</v>
       </c>
-      <c r="G33" s="23"/>
-      <c r="H33" s="56" t="s">
+      <c r="G33" s="57"/>
+      <c r="H33" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="45"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="47"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="29"/>
     </row>
     <row r="34" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="18"/>
-      <c r="B34" s="38"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="20"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="54"/>
       <c r="F34" s="3">
         <v>165000</v>
       </c>
-      <c r="G34" s="23"/>
-      <c r="H34" s="56" t="s">
+      <c r="G34" s="57"/>
+      <c r="H34" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="45"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="47"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="29"/>
     </row>
     <row r="35" spans="1:16" ht="132.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="18"/>
-      <c r="B35" s="38"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="21"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="55"/>
       <c r="F35" s="3">
         <v>330000</v>
       </c>
-      <c r="G35" s="24"/>
-      <c r="H35" s="56" t="s">
+      <c r="G35" s="58"/>
+      <c r="H35" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="50"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="32"/>
     </row>
     <row r="36" spans="1:16" ht="85.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B36" s="38" t="s">
+      <c r="A36" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="49" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -2674,86 +2690,86 @@
       <c r="D36" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E36" s="19" t="s">
-        <v>144</v>
+      <c r="E36" s="53" t="s">
+        <v>143</v>
       </c>
       <c r="F36" s="3">
         <v>450</v>
       </c>
-      <c r="G36" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="H36" s="51" t="s">
+      <c r="G36" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="H36" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="O36" s="43"/>
-      <c r="P36" s="44"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="O36" s="25"/>
+      <c r="P36" s="26"/>
     </row>
     <row r="37" spans="1:16" ht="85.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="18"/>
-      <c r="B37" s="38"/>
+      <c r="A37" s="64"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="E37" s="20"/>
+      <c r="E37" s="54"/>
       <c r="F37" s="3">
         <v>725</v>
       </c>
-      <c r="G37" s="23"/>
-      <c r="H37" s="51" t="s">
+      <c r="G37" s="57"/>
+      <c r="H37" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="52"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="45"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="47"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="29"/>
     </row>
     <row r="38" spans="1:16" ht="85.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="18"/>
-      <c r="B38" s="38"/>
+      <c r="A38" s="64"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="E38" s="21"/>
+      <c r="E38" s="55"/>
       <c r="F38" s="3">
         <v>1000</v>
       </c>
-      <c r="G38" s="24"/>
-      <c r="H38" s="51" t="s">
+      <c r="G38" s="58"/>
+      <c r="H38" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="53"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="49"/>
-      <c r="P38" s="50"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="32"/>
     </row>
     <row r="39" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="B39" s="38" t="s">
+      <c r="A39" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="49" t="s">
         <v>43</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -2762,340 +2778,340 @@
       <c r="D39" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="19" t="s">
-        <v>143</v>
+      <c r="E39" s="53" t="s">
+        <v>142</v>
       </c>
       <c r="F39" s="3">
         <v>16000</v>
       </c>
-      <c r="G39" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="H39" s="56" t="s">
+      <c r="G39" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="H39" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="O39" s="43"/>
-      <c r="P39" s="44"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="O39" s="25"/>
+      <c r="P39" s="26"/>
     </row>
     <row r="40" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="18"/>
-      <c r="B40" s="38"/>
+      <c r="A40" s="64"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="9" t="s">
         <v>77</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="E40" s="20"/>
+      <c r="E40" s="54"/>
       <c r="F40" s="3">
         <v>12500</v>
       </c>
-      <c r="G40" s="23"/>
-      <c r="H40" s="56" t="s">
+      <c r="G40" s="57"/>
+      <c r="H40" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="45"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="47"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="29"/>
     </row>
     <row r="41" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="18"/>
-      <c r="B41" s="38"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="9" t="s">
         <v>86</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E41" s="20"/>
+      <c r="E41" s="54"/>
       <c r="F41" s="3">
         <v>9900</v>
       </c>
-      <c r="G41" s="23"/>
-      <c r="H41" s="62" t="s">
+      <c r="G41" s="57"/>
+      <c r="H41" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="I41" s="63"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="64"/>
-      <c r="N41" s="45"/>
-      <c r="O41" s="46"/>
-      <c r="P41" s="47"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="29"/>
     </row>
     <row r="42" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="18"/>
-      <c r="B42" s="38"/>
+      <c r="A42" s="64"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="9" t="s">
         <v>82</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E42" s="20"/>
+      <c r="E42" s="54"/>
       <c r="F42" s="3">
         <v>7450</v>
       </c>
-      <c r="G42" s="23"/>
-      <c r="H42" s="56" t="s">
+      <c r="G42" s="57"/>
+      <c r="H42" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="58"/>
-      <c r="N42" s="45"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="47"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="29"/>
     </row>
     <row r="43" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="18"/>
-      <c r="B43" s="38"/>
+      <c r="A43" s="64"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E43" s="20"/>
+      <c r="E43" s="54"/>
       <c r="F43" s="3">
         <v>5600</v>
       </c>
-      <c r="G43" s="23"/>
-      <c r="H43" s="62" t="s">
+      <c r="G43" s="57"/>
+      <c r="H43" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="63"/>
-      <c r="M43" s="64"/>
-      <c r="N43" s="45"/>
-      <c r="O43" s="46"/>
-      <c r="P43" s="47"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="29"/>
     </row>
     <row r="44" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="18"/>
-      <c r="B44" s="38"/>
+      <c r="A44" s="64"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="9" t="s">
         <v>90</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E44" s="20"/>
+      <c r="E44" s="54"/>
       <c r="F44" s="3">
         <v>4580</v>
       </c>
-      <c r="G44" s="23"/>
-      <c r="H44" s="56" t="s">
+      <c r="G44" s="57"/>
+      <c r="H44" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="58"/>
-      <c r="N44" s="45"/>
-      <c r="O44" s="46"/>
-      <c r="P44" s="47"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="29"/>
     </row>
     <row r="45" spans="1:16" ht="108" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="18"/>
-      <c r="B45" s="38"/>
+      <c r="A45" s="64"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="9" t="s">
         <v>92</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E45" s="21"/>
+      <c r="E45" s="55"/>
       <c r="F45" s="3">
         <v>3750</v>
       </c>
-      <c r="G45" s="24"/>
-      <c r="H45" s="62" t="s">
+      <c r="G45" s="58"/>
+      <c r="H45" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="I45" s="63"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="63"/>
-      <c r="L45" s="63"/>
-      <c r="M45" s="64"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="49"/>
-      <c r="P45" s="50"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="32"/>
     </row>
     <row r="46" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="B46" s="38" t="s">
+      <c r="A46" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="B46" s="49" t="s">
         <v>45</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="19" t="s">
-        <v>145</v>
+      <c r="E46" s="53" t="s">
+        <v>144</v>
       </c>
       <c r="F46" s="3">
-        <v>23400</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="H46" s="56" t="s">
+        <v>19500</v>
+      </c>
+      <c r="G46" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="H46" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="58"/>
-      <c r="N46" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="O46" s="43"/>
-      <c r="P46" s="44"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="O46" s="25"/>
+      <c r="P46" s="26"/>
     </row>
     <row r="47" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="18"/>
-      <c r="B47" s="38"/>
+      <c r="A47" s="64"/>
+      <c r="B47" s="49"/>
       <c r="C47" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="39"/>
-      <c r="E47" s="20"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="54"/>
       <c r="F47" s="3">
         <v>31250</v>
       </c>
-      <c r="G47" s="23"/>
-      <c r="H47" s="56" t="s">
+      <c r="G47" s="57"/>
+      <c r="H47" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="I47" s="57"/>
-      <c r="J47" s="57"/>
-      <c r="K47" s="57"/>
-      <c r="L47" s="57"/>
-      <c r="M47" s="58"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="46"/>
-      <c r="P47" s="47"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="29"/>
     </row>
     <row r="48" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="18"/>
-      <c r="B48" s="38"/>
+      <c r="A48" s="64"/>
+      <c r="B48" s="49"/>
       <c r="C48" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="39"/>
-      <c r="E48" s="20"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="54"/>
       <c r="F48" s="3">
         <v>21000</v>
       </c>
-      <c r="G48" s="23"/>
-      <c r="H48" s="56" t="s">
+      <c r="G48" s="57"/>
+      <c r="H48" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="I48" s="57"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="57"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="58"/>
-      <c r="N48" s="45"/>
-      <c r="O48" s="46"/>
-      <c r="P48" s="47"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="29"/>
     </row>
     <row r="49" spans="1:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="18"/>
-      <c r="B49" s="38"/>
+      <c r="A49" s="64"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="39"/>
-      <c r="E49" s="20"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="54"/>
       <c r="F49" s="3">
         <v>26250</v>
       </c>
-      <c r="G49" s="23"/>
-      <c r="H49" s="56" t="s">
+      <c r="G49" s="57"/>
+      <c r="H49" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="57"/>
-      <c r="L49" s="57"/>
-      <c r="M49" s="58"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="46"/>
-      <c r="P49" s="47"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="29"/>
     </row>
     <row r="50" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="18"/>
-      <c r="B50" s="38"/>
+      <c r="A50" s="64"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="39"/>
-      <c r="E50" s="20"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="54"/>
       <c r="F50" s="3">
         <v>26000</v>
       </c>
-      <c r="G50" s="23"/>
-      <c r="H50" s="56" t="s">
+      <c r="G50" s="57"/>
+      <c r="H50" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="I50" s="57"/>
-      <c r="J50" s="57"/>
-      <c r="K50" s="57"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="58"/>
-      <c r="N50" s="45"/>
-      <c r="O50" s="46"/>
-      <c r="P50" s="47"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="29"/>
     </row>
     <row r="51" spans="1:16" ht="92.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="18"/>
-      <c r="B51" s="38"/>
+      <c r="A51" s="64"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="40"/>
-      <c r="E51" s="21"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="55"/>
       <c r="F51" s="3">
         <v>32500</v>
       </c>
-      <c r="G51" s="24"/>
-      <c r="H51" s="56" t="s">
+      <c r="G51" s="58"/>
+      <c r="H51" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="I51" s="57"/>
-      <c r="J51" s="57"/>
-      <c r="K51" s="57"/>
-      <c r="L51" s="57"/>
-      <c r="M51" s="58"/>
-      <c r="N51" s="48"/>
-      <c r="O51" s="49"/>
-      <c r="P51" s="50"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="32"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.15">
       <c r="F52" s="6"/>
@@ -3109,56 +3125,29 @@
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="H46:M46"/>
-    <mergeCell ref="H47:M47"/>
-    <mergeCell ref="H48:M48"/>
-    <mergeCell ref="H49:M49"/>
-    <mergeCell ref="H50:M50"/>
-    <mergeCell ref="H51:M51"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="H18:M18"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="H30:M30"/>
-    <mergeCell ref="H31:M31"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="N46:P51"/>
-    <mergeCell ref="N36:P38"/>
-    <mergeCell ref="N39:P45"/>
-    <mergeCell ref="H36:M36"/>
-    <mergeCell ref="H37:M37"/>
-    <mergeCell ref="H38:M38"/>
-    <mergeCell ref="H39:M39"/>
-    <mergeCell ref="H40:M40"/>
-    <mergeCell ref="H41:M41"/>
-    <mergeCell ref="H42:M42"/>
-    <mergeCell ref="H43:M43"/>
-    <mergeCell ref="H44:M44"/>
-    <mergeCell ref="H45:M45"/>
-    <mergeCell ref="N28:P35"/>
-    <mergeCell ref="D19:D27"/>
-    <mergeCell ref="D28:D35"/>
-    <mergeCell ref="H19:M19"/>
-    <mergeCell ref="H20:M20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="H22:M22"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="H25:M25"/>
-    <mergeCell ref="H26:M26"/>
-    <mergeCell ref="H27:M27"/>
-    <mergeCell ref="H28:M28"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="H35:M35"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="N19:P27"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A45"/>
+    <mergeCell ref="A46:A51"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="G19:G27"/>
+    <mergeCell ref="G28:G35"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="G39:G45"/>
+    <mergeCell ref="G46:G51"/>
     <mergeCell ref="B1:P1"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="H3:M3"/>
@@ -3183,33 +3172,60 @@
     <mergeCell ref="H7:M7"/>
     <mergeCell ref="H8:M8"/>
     <mergeCell ref="H9:M9"/>
-    <mergeCell ref="E39:E45"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="N19:P27"/>
+    <mergeCell ref="N28:P35"/>
+    <mergeCell ref="D19:D27"/>
+    <mergeCell ref="D28:D35"/>
+    <mergeCell ref="H19:M19"/>
+    <mergeCell ref="H20:M20"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="H22:M22"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="H25:M25"/>
+    <mergeCell ref="H26:M26"/>
+    <mergeCell ref="H27:M27"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="H35:M35"/>
     <mergeCell ref="E19:E27"/>
     <mergeCell ref="E28:E35"/>
+    <mergeCell ref="N46:P51"/>
+    <mergeCell ref="N36:P38"/>
+    <mergeCell ref="N39:P45"/>
+    <mergeCell ref="H36:M36"/>
+    <mergeCell ref="H37:M37"/>
+    <mergeCell ref="H38:M38"/>
+    <mergeCell ref="H39:M39"/>
+    <mergeCell ref="H40:M40"/>
+    <mergeCell ref="H41:M41"/>
+    <mergeCell ref="H42:M42"/>
+    <mergeCell ref="H43:M43"/>
+    <mergeCell ref="H44:M44"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="H46:M46"/>
+    <mergeCell ref="H47:M47"/>
+    <mergeCell ref="H48:M48"/>
+    <mergeCell ref="H49:M49"/>
+    <mergeCell ref="H50:M50"/>
+    <mergeCell ref="H51:M51"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="H18:M18"/>
+    <mergeCell ref="H29:M29"/>
+    <mergeCell ref="H30:M30"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="E39:E45"/>
     <mergeCell ref="E46:E51"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="G15:G18"/>
-    <mergeCell ref="G19:G27"/>
-    <mergeCell ref="G28:G35"/>
-    <mergeCell ref="G36:G38"/>
-    <mergeCell ref="G39:G45"/>
-    <mergeCell ref="G46:G51"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A45"/>
-    <mergeCell ref="A46:A51"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
